--- a/natmiOut/OldD7/LR-pairs_lrc2p/Tgfb2-Tgfbr2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Tgfb2-Tgfbr2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.83029139199087</v>
+        <v>2.191602</v>
       </c>
       <c r="H2">
-        <v>1.83029139199087</v>
+        <v>6.574806000000001</v>
       </c>
       <c r="I2">
-        <v>0.06670108203694963</v>
+        <v>0.07674610985252207</v>
       </c>
       <c r="J2">
-        <v>0.06670108203694963</v>
+        <v>0.07674610985252209</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.6476384243461</v>
+        <v>19.60726733333334</v>
       </c>
       <c r="N2">
-        <v>17.6476384243461</v>
+        <v>58.82180200000001</v>
       </c>
       <c r="O2">
-        <v>0.1425678307947357</v>
+        <v>0.1509859438163708</v>
       </c>
       <c r="P2">
-        <v>0.1425678307947357</v>
+        <v>0.1509859438163708</v>
       </c>
       <c r="Q2">
-        <v>32.30032069704799</v>
+        <v>42.971326302268</v>
       </c>
       <c r="R2">
-        <v>32.30032069704799</v>
+        <v>386.7419367204121</v>
       </c>
       <c r="S2">
-        <v>0.009509428577669621</v>
+        <v>0.01158758383031792</v>
       </c>
       <c r="T2">
-        <v>0.009509428577669621</v>
+        <v>0.01158758383031792</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.83029139199087</v>
+        <v>2.191602</v>
       </c>
       <c r="H3">
-        <v>1.83029139199087</v>
+        <v>6.574806000000001</v>
       </c>
       <c r="I3">
-        <v>0.06670108203694963</v>
+        <v>0.07674610985252207</v>
       </c>
       <c r="J3">
-        <v>0.06670108203694963</v>
+        <v>0.07674610985252209</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>69.6709914247387</v>
+        <v>70.710031</v>
       </c>
       <c r="N3">
-        <v>69.6709914247387</v>
+        <v>212.130093</v>
       </c>
       <c r="O3">
-        <v>0.5628425672548123</v>
+        <v>0.544503249041223</v>
       </c>
       <c r="P3">
-        <v>0.5628425672548123</v>
+        <v>0.544503249041223</v>
       </c>
       <c r="Q3">
-        <v>127.518215876169</v>
+        <v>154.968245359662</v>
       </c>
       <c r="R3">
-        <v>127.518215876169</v>
+        <v>1394.714208236958</v>
       </c>
       <c r="S3">
-        <v>0.03754220825235058</v>
+        <v>0.04178850616597289</v>
       </c>
       <c r="T3">
-        <v>0.03754220825235058</v>
+        <v>0.0417885061659729</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.83029139199087</v>
+        <v>2.191602</v>
       </c>
       <c r="H4">
-        <v>1.83029139199087</v>
+        <v>6.574806000000001</v>
       </c>
       <c r="I4">
-        <v>0.06670108203694963</v>
+        <v>0.07674610985252207</v>
       </c>
       <c r="J4">
-        <v>0.06670108203694963</v>
+        <v>0.07674610985252209</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.5000993560835</v>
+        <v>29.95517733333334</v>
       </c>
       <c r="N4">
-        <v>27.5000993560835</v>
+        <v>89.865532</v>
       </c>
       <c r="O4">
-        <v>0.2221617089812856</v>
+        <v>0.2306701206736283</v>
       </c>
       <c r="P4">
-        <v>0.2221617089812856</v>
+        <v>0.2306701206736284</v>
       </c>
       <c r="Q4">
-        <v>50.3331951303333</v>
+        <v>65.64982655408801</v>
       </c>
       <c r="R4">
-        <v>50.3331951303333</v>
+        <v>590.8484389867921</v>
       </c>
       <c r="S4">
-        <v>0.01481842637622966</v>
+        <v>0.0177030344209128</v>
       </c>
       <c r="T4">
-        <v>0.01481842637622966</v>
+        <v>0.01770303442091281</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.83029139199087</v>
+        <v>2.191602</v>
       </c>
       <c r="H5">
-        <v>1.83029139199087</v>
+        <v>6.574806000000001</v>
       </c>
       <c r="I5">
-        <v>0.06670108203694963</v>
+        <v>0.07674610985252207</v>
       </c>
       <c r="J5">
-        <v>0.06670108203694963</v>
+        <v>0.07674610985252209</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.965425508909981</v>
+        <v>9.589065333333332</v>
       </c>
       <c r="N5">
-        <v>8.965425508909981</v>
+        <v>28.767196</v>
       </c>
       <c r="O5">
-        <v>0.07242789296916627</v>
+        <v>0.07384068646877778</v>
       </c>
       <c r="P5">
-        <v>0.07242789296916627</v>
+        <v>0.0738406864687778</v>
       </c>
       <c r="Q5">
-        <v>16.4093411344933</v>
+        <v>21.015414762664</v>
       </c>
       <c r="R5">
-        <v>16.4093411344933</v>
+        <v>189.138732863976</v>
       </c>
       <c r="S5">
-        <v>0.004831018830699767</v>
+        <v>0.00566698543531846</v>
       </c>
       <c r="T5">
-        <v>0.004831018830699767</v>
+        <v>0.005666985435318462</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.5563085142682</v>
+        <v>16.59481266666667</v>
       </c>
       <c r="H6">
-        <v>16.5563085142682</v>
+        <v>49.78443799999999</v>
       </c>
       <c r="I6">
-        <v>0.6033594963466667</v>
+        <v>0.5811216251390648</v>
       </c>
       <c r="J6">
-        <v>0.6033594963466667</v>
+        <v>0.5811216251390647</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.6476384243461</v>
+        <v>19.60726733333334</v>
       </c>
       <c r="N6">
-        <v>17.6476384243461</v>
+        <v>58.82180200000001</v>
       </c>
       <c r="O6">
-        <v>0.1425678307947357</v>
+        <v>0.1509859438163708</v>
       </c>
       <c r="P6">
-        <v>0.1425678307947357</v>
+        <v>0.1509859438163708</v>
       </c>
       <c r="Q6">
-        <v>292.179746301728</v>
+        <v>325.3789283019196</v>
       </c>
       <c r="R6">
-        <v>292.179746301728</v>
+        <v>2928.410354717276</v>
       </c>
       <c r="S6">
-        <v>0.08601965458354854</v>
+        <v>0.08774119704372495</v>
       </c>
       <c r="T6">
-        <v>0.08601965458354854</v>
+        <v>0.08774119704372493</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.5563085142682</v>
+        <v>16.59481266666667</v>
       </c>
       <c r="H7">
-        <v>16.5563085142682</v>
+        <v>49.78443799999999</v>
       </c>
       <c r="I7">
-        <v>0.6033594963466667</v>
+        <v>0.5811216251390648</v>
       </c>
       <c r="J7">
-        <v>0.6033594963466667</v>
+        <v>0.5811216251390647</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>69.6709914247387</v>
+        <v>70.710031</v>
       </c>
       <c r="N7">
-        <v>69.6709914247387</v>
+        <v>212.130093</v>
       </c>
       <c r="O7">
-        <v>0.5628425672548123</v>
+        <v>0.544503249041223</v>
       </c>
       <c r="P7">
-        <v>0.5628425672548123</v>
+        <v>0.544503249041223</v>
       </c>
       <c r="Q7">
-        <v>1153.494428522908</v>
+        <v>1173.419718099193</v>
       </c>
       <c r="R7">
-        <v>1153.494428522908</v>
+        <v>10560.77746289273</v>
       </c>
       <c r="S7">
-        <v>0.3395964079013284</v>
+        <v>0.3164226129763365</v>
       </c>
       <c r="T7">
-        <v>0.3395964079013284</v>
+        <v>0.3164226129763364</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.5563085142682</v>
+        <v>16.59481266666667</v>
       </c>
       <c r="H8">
-        <v>16.5563085142682</v>
+        <v>49.78443799999999</v>
       </c>
       <c r="I8">
-        <v>0.6033594963466667</v>
+        <v>0.5811216251390648</v>
       </c>
       <c r="J8">
-        <v>0.6033594963466667</v>
+        <v>0.5811216251390647</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>27.5000993560835</v>
+        <v>29.95517733333334</v>
       </c>
       <c r="N8">
-        <v>27.5000993560835</v>
+        <v>89.865532</v>
       </c>
       <c r="O8">
-        <v>0.2221617089812856</v>
+        <v>0.2306701206736283</v>
       </c>
       <c r="P8">
-        <v>0.2221617089812856</v>
+        <v>0.2306701206736284</v>
       </c>
       <c r="Q8">
-        <v>455.3001291123467</v>
+        <v>497.1005562434462</v>
       </c>
       <c r="R8">
-        <v>455.3001291123467</v>
+        <v>4473.905006191016</v>
       </c>
       <c r="S8">
-        <v>0.1340433768384633</v>
+        <v>0.1340473953968831</v>
       </c>
       <c r="T8">
-        <v>0.1340433768384633</v>
+        <v>0.1340473953968831</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>16.5563085142682</v>
+        <v>16.59481266666667</v>
       </c>
       <c r="H9">
-        <v>16.5563085142682</v>
+        <v>49.78443799999999</v>
       </c>
       <c r="I9">
-        <v>0.6033594963466667</v>
+        <v>0.5811216251390648</v>
       </c>
       <c r="J9">
-        <v>0.6033594963466667</v>
+        <v>0.5811216251390647</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.965425508909981</v>
+        <v>9.589065333333332</v>
       </c>
       <c r="N9">
-        <v>8.965425508909981</v>
+        <v>28.767196</v>
       </c>
       <c r="O9">
-        <v>0.07242789296916627</v>
+        <v>0.07384068646877778</v>
       </c>
       <c r="P9">
-        <v>0.07242789296916627</v>
+        <v>0.0738406864687778</v>
       </c>
       <c r="Q9">
-        <v>148.4343506872036</v>
+        <v>159.1287428550942</v>
       </c>
       <c r="R9">
-        <v>148.4343506872036</v>
+        <v>1432.158685695848</v>
       </c>
       <c r="S9">
-        <v>0.04370005702332645</v>
+        <v>0.0429104197221203</v>
       </c>
       <c r="T9">
-        <v>0.04370005702332645</v>
+        <v>0.0429104197221203</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.05360550115793</v>
+        <v>9.770107666666666</v>
       </c>
       <c r="H10">
-        <v>9.05360550115793</v>
+        <v>29.310323</v>
       </c>
       <c r="I10">
-        <v>0.3299394216163838</v>
+        <v>0.342132265008413</v>
       </c>
       <c r="J10">
-        <v>0.3299394216163838</v>
+        <v>0.342132265008413</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.6476384243461</v>
+        <v>19.60726733333334</v>
       </c>
       <c r="N10">
-        <v>17.6476384243461</v>
+        <v>58.82180200000001</v>
       </c>
       <c r="O10">
-        <v>0.1425678307947357</v>
+        <v>0.1509859438163708</v>
       </c>
       <c r="P10">
-        <v>0.1425678307947357</v>
+        <v>0.1509859438163708</v>
       </c>
       <c r="Q10">
-        <v>159.7747563211059</v>
+        <v>191.5651128957829</v>
       </c>
       <c r="R10">
-        <v>159.7747563211059</v>
+        <v>1724.086016062046</v>
       </c>
       <c r="S10">
-        <v>0.04703874763351756</v>
+        <v>0.05165716294232794</v>
       </c>
       <c r="T10">
-        <v>0.04703874763351756</v>
+        <v>0.05165716294232794</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.05360550115793</v>
+        <v>9.770107666666666</v>
       </c>
       <c r="H11">
-        <v>9.05360550115793</v>
+        <v>29.310323</v>
       </c>
       <c r="I11">
-        <v>0.3299394216163838</v>
+        <v>0.342132265008413</v>
       </c>
       <c r="J11">
-        <v>0.3299394216163838</v>
+        <v>0.342132265008413</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>69.6709914247387</v>
+        <v>70.710031</v>
       </c>
       <c r="N11">
-        <v>69.6709914247387</v>
+        <v>212.130093</v>
       </c>
       <c r="O11">
-        <v>0.5628425672548123</v>
+        <v>0.544503249041223</v>
       </c>
       <c r="P11">
-        <v>0.5628425672548123</v>
+        <v>0.544503249041223</v>
       </c>
       <c r="Q11">
-        <v>630.7736712341413</v>
+        <v>690.8446159833377</v>
       </c>
       <c r="R11">
-        <v>630.7736712341413</v>
+        <v>6217.601543850038</v>
       </c>
       <c r="S11">
-        <v>0.1857039511011334</v>
+        <v>0.1862921298989136</v>
       </c>
       <c r="T11">
-        <v>0.1857039511011334</v>
+        <v>0.1862921298989136</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>25</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.05360550115793</v>
+        <v>9.770107666666666</v>
       </c>
       <c r="H12">
-        <v>9.05360550115793</v>
+        <v>29.310323</v>
       </c>
       <c r="I12">
-        <v>0.3299394216163838</v>
+        <v>0.342132265008413</v>
       </c>
       <c r="J12">
-        <v>0.3299394216163838</v>
+        <v>0.342132265008413</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>27.5000993560835</v>
+        <v>29.95517733333334</v>
       </c>
       <c r="N12">
-        <v>27.5000993560835</v>
+        <v>89.865532</v>
       </c>
       <c r="O12">
-        <v>0.2221617089812856</v>
+        <v>0.2306701206736283</v>
       </c>
       <c r="P12">
-        <v>0.2221617089812856</v>
+        <v>0.2306701206736284</v>
       </c>
       <c r="Q12">
-        <v>248.9750508126272</v>
+        <v>292.6653077207596</v>
       </c>
       <c r="R12">
-        <v>248.9750508126272</v>
+        <v>2633.987769486836</v>
       </c>
       <c r="S12">
-        <v>0.07329990576659276</v>
+        <v>0.07891969085583242</v>
       </c>
       <c r="T12">
-        <v>0.07329990576659276</v>
+        <v>0.07891969085583243</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.05360550115793</v>
+        <v>9.770107666666666</v>
       </c>
       <c r="H13">
-        <v>9.05360550115793</v>
+        <v>29.310323</v>
       </c>
       <c r="I13">
-        <v>0.3299394216163838</v>
+        <v>0.342132265008413</v>
       </c>
       <c r="J13">
-        <v>0.3299394216163838</v>
+        <v>0.342132265008413</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.965425508909981</v>
+        <v>9.589065333333332</v>
       </c>
       <c r="N13">
-        <v>8.965425508909981</v>
+        <v>28.767196</v>
       </c>
       <c r="O13">
-        <v>0.07242789296916627</v>
+        <v>0.07384068646877778</v>
       </c>
       <c r="P13">
-        <v>0.07242789296916627</v>
+        <v>0.0738406864687778</v>
       </c>
       <c r="Q13">
-        <v>81.16942570768904</v>
+        <v>93.68620072936754</v>
       </c>
       <c r="R13">
-        <v>81.16942570768904</v>
+        <v>843.1758065643079</v>
       </c>
       <c r="S13">
-        <v>0.02389681711514007</v>
+        <v>0.02526328131133902</v>
       </c>
       <c r="T13">
-        <v>0.02389681711514007</v>
+        <v>0.02526328131133902</v>
       </c>
     </row>
   </sheetData>
